--- a/trunk/melone/doc/other/在线pos(Vend).xlsx
+++ b/trunk/melone/doc/other/在线pos(Vend).xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18180" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18180" windowHeight="8325" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="销售" sheetId="1" r:id="rId1"/>
-    <sheet name="仓库" sheetId="2" r:id="rId2"/>
-    <sheet name="销售历史" sheetId="3" r:id="rId3"/>
-    <sheet name="顾客" sheetId="4" r:id="rId4"/>
+    <sheet name="销售报告" sheetId="5" r:id="rId1"/>
+    <sheet name="货品报告" sheetId="6" r:id="rId2"/>
+    <sheet name="货品销售" sheetId="1" r:id="rId3"/>
+    <sheet name="仓库" sheetId="2" r:id="rId4"/>
+    <sheet name="销售历史" sheetId="3" r:id="rId5"/>
+    <sheet name="顾客" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>当前销售</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +41,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>顾客首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新增顾客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总额统计（区间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总额统计（月）</t>
+  </si>
+  <si>
+    <t>销售总额统计（天）</t>
+  </si>
+  <si>
+    <t>销售详情</t>
+  </si>
+  <si>
+    <t>支付类型统计（月）</t>
+  </si>
+  <si>
+    <t>货品销量（销售）</t>
+  </si>
+  <si>
+    <t>货品销量（供应商）</t>
+  </si>
+  <si>
+    <t>库存?????</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,11 +130,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -120,16 +153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -147,36 +180,36 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="171450"/>
-          <a:ext cx="10963275" cy="6286500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+          <a:off x="0" y="2228850"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -194,36 +227,36 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="7029450"/>
-          <a:ext cx="12134850" cy="6467475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+          <a:off x="0" y="6858000"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -241,8 +274,290 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="13887450"/>
-          <a:ext cx="12134850" cy="6467475"/>
+          <a:off x="0" y="14058900"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20916900"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27603450"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="33947100"/>
+          <a:ext cx="9772650" cy="6076950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="40633650"/>
+          <a:ext cx="9772650" cy="6486525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10287000" y="14058900"/>
+          <a:ext cx="9772650" cy="6486525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20574000" y="14058900"/>
+          <a:ext cx="9772650" cy="6486525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -266,16 +581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -293,36 +608,36 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="171450"/>
-          <a:ext cx="12134850" cy="6467475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="9772650" cy="6486525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,149 +655,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="685800" y="7029450"/>
-          <a:ext cx="12134850" cy="6467475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="13716000"/>
-          <a:ext cx="12134850" cy="6467475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="20402550"/>
-          <a:ext cx="12134850" cy="6467475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="28117800"/>
-          <a:ext cx="11287125" cy="3648075"/>
+          <a:off x="0" y="7029450"/>
+          <a:ext cx="9772650" cy="6486525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,20 +680,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -533,8 +707,102 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="342900"/>
-          <a:ext cx="10972800" cy="4648200"/>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="10963275" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="7029450"/>
+          <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="13887450"/>
+          <a:ext cx="12134850" cy="6467475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,6 +823,298 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="7029450"/>
+          <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="13716000"/>
+          <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="20402550"/>
+          <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28117800"/>
+          <a:ext cx="11287125" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="10972800" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1032,10 +1592,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A237"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q64" workbookViewId="0">
+      <selection activeCell="AE83" sqref="AE83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" s="2" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" s="2" customFormat="1">
+      <c r="A161" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" s="2" customFormat="1">
+      <c r="A237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" s="2" customFormat="1">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1062,12 +1694,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1084,7 +1716,7 @@
     </row>
     <row r="163" spans="1:1" s="1" customFormat="1">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1094,11 +1726,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
@@ -1122,12 +1754,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="1" customFormat="1">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/melone/doc/other/在线pos(Vend).xlsx
+++ b/trunk/melone/doc/other/在线pos(Vend).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18180" windowHeight="8325" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18180" windowHeight="8325" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="销售报告" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="仓库" sheetId="2" r:id="rId4"/>
     <sheet name="销售历史" sheetId="3" r:id="rId5"/>
     <sheet name="顾客" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1288,6 +1289,199 @@
         <a:xfrm>
           <a:off x="685800" y="20402550"/>
           <a:ext cx="12134850" cy="6467475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15116175"/>
+          <a:ext cx="1876425" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="15097125"/>
+          <a:ext cx="13011150" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1767,4 +1961,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/melone/doc/other/在线pos(Vend).xlsx
+++ b/trunk/melone/doc/other/在线pos(Vend).xlsx
@@ -1482,6 +1482,53 @@
         <a:xfrm>
           <a:off x="2743200" y="15097125"/>
           <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22802850"/>
+          <a:ext cx="9772650" cy="6715125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
